--- a/data/SOC.xlsx
+++ b/data/SOC.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,6 +371,21 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Corequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Concurrent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Recommended</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Terms Typically Offered</t>
         </is>
       </c>
@@ -393,6 +408,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -415,6 +445,21 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>F, SP</t>
         </is>
       </c>
@@ -437,6 +482,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -459,6 +519,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>F, W</t>
         </is>
       </c>
@@ -481,6 +556,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -498,12 +588,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SOC 110. Recommended: Junior standing.</t>
+          <t>SOC 110.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Junior standing.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F </t>
         </is>
       </c>
     </row>
@@ -520,10 +625,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SOC 110.</t>
+          <t>SOC 110.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -542,12 +662,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SOC 110 or SOC 111. Recommended: Junior standing.</t>
+          <t>SOC 110 or SOC 111.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Junior standing.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -564,10 +699,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SOC 110.</t>
+          <t>SOC 110.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -586,12 +736,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SOC 110. Recommended: Junior standing.</t>
+          <t>SOC 110.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Junior standing.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F </t>
         </is>
       </c>
     </row>
@@ -613,6 +778,21 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -635,6 +815,21 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>F, W</t>
         </is>
       </c>
@@ -657,6 +852,21 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -679,6 +889,21 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>W, SP</t>
         </is>
       </c>
@@ -696,12 +921,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Junior standing; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and completion of GE Area D3. Recommended: SOC 110 (GE Area D3).</t>
+          <t>Junior standing; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and completion of GE Area D3.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>SOC 110 (GE Area D3).</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBD </t>
         </is>
       </c>
     </row>
@@ -723,6 +963,21 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>F, W</t>
         </is>
       </c>
@@ -745,6 +1000,21 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -762,10 +1032,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Junior standing; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and one lower-division course in GE Area D. Recommended HIST 216 (GE Area D3) or SOC 305.</t>
+          <t>Junior standing; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and one lower-division course in GE Area D. Recommended HIST 216 (GE Area D3) or SOC 305.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -789,7 +1074,22 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>TBDPrerequisites: Junior standing; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and completion of GE Area D3. Recommended: SOC 110 (GE Area D3).</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>SOC 110 (GE Area D3).</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Junior standing; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and completion of GE Area D3. </t>
         </is>
       </c>
     </row>
@@ -806,12 +1106,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>STAT 217; and two Sociology courses. Recommended: Junior standing.</t>
+          <t>STAT 217; and two Sociology courses.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Junior standing.</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -828,12 +1143,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>STAT 217; and two Sociology courses. Recommended: Junior standing.</t>
+          <t>STAT 217; and two Sociology courses.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Junior standing.</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -855,6 +1185,21 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -877,6 +1222,21 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -899,6 +1259,21 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -921,6 +1296,21 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -943,6 +1333,21 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -965,6 +1370,21 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -982,12 +1402,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SOC 110 or SOC 111. Recommended: Junior standing.</t>
+          <t>SOC 110 or SOC 111.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Junior standing.</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -1004,10 +1439,25 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SOC 414.</t>
+          <t>SOC 414.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1026,10 +1476,25 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SOC 111.</t>
+          <t>SOC 111.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -1053,6 +1518,21 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -1070,12 +1550,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SOC 110 or ANT 201. Recommended: SOC 354; SOC 355; or ANT/GEOG 455.</t>
+          <t>SOC 110 or ANT 201.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>SOC 354; SOC 355; or ANT/GEOG 455.</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBD </t>
         </is>
       </c>
     </row>
@@ -1092,12 +1587,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Consent of instructor. Recommended: Junior standing.</t>
+          <t>Consent of instructor.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Junior standing.</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBD </t>
         </is>
       </c>
     </row>
@@ -1114,10 +1624,25 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Junior standing, SOC 402 or SOC 412, and consent of instructor.</t>
+          <t>Junior standing, SOC 402 or SOC 412, and consent of instructor.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1141,6 +1666,21 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1163,6 +1703,21 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1180,10 +1735,25 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SOC 110 and Junior standing.</t>
+          <t>SOC 110 and Junior standing.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1206,6 +1776,21 @@
         </is>
       </c>
       <c r="D39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
